--- a/biology/Histoire de la zoologie et de la botanique/Wolter_Edward_Hellén/Wolter_Edward_Hellén.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wolter_Edward_Hellén/Wolter_Edward_Hellén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wolter_Edward_Hell%C3%A9n</t>
+          <t>Wolter_Edward_Hellén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wolter Edward Hellén (9 mars 1890-31 décembre 1979 (à 89 ans)) est un entomologiste finlandais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wolter_Edward_Hell%C3%A9n</t>
+          <t>Wolter_Edward_Hellén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Helsinki en 9 mars 1890 et décédé en 31 décembre 1979 (à 89 ans)[1]. Son conjoint est Mary Linnea Hellén[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Helsinki en 9 mars 1890 et décédé en 31 décembre 1979 (à 89 ans). Son conjoint est Mary Linnea Hellén.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wolter_Edward_Hell%C3%A9n</t>
+          <t>Wolter_Edward_Hellén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'auteur, en 1915, d'au moins trois tribus d'insectes hyménoptères apocrites de la famille des Pimplinae : les Delomeristini[2], les Ephialtini[3], et les Polysphinctini[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'auteur, en 1915, d'au moins trois tribus d'insectes hyménoptères apocrites de la famille des Pimplinae : les Delomeristini, les Ephialtini, et les Polysphinctini.
 </t>
         </is>
       </c>
